--- a/experiments/evaluation/llm-seed/bert-base-cased_15/rem-40_original/ori5/67/correct_predictions_67.xlsx
+++ b/experiments/evaluation/llm-seed/bert-base-cased_15/rem-40_original/ori5/67/correct_predictions_67.xlsx
@@ -926,12 +926,12 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>GPS signal low</t>
+          <t>Aircraft unable to auto hover and takeoff restricted</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>0-2</t>
+          <t>4-11</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
@@ -1007,31 +1007,31 @@
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>Motor speed error . Land or return to home promptly . After powering off the aircraft, replace the propeller on the beeping ESC . If the issue persists, contact DJI Support .</t>
+          <t>GPS signal low . Aircraft unable to auto hover and takeoff restricted . Move to environment with adequate light . Unlocking takeoff restrictions not recommended .</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>Land or return to home promptly</t>
+          <t>GPS signal low</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>4-9</t>
+          <t>0-2</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
     </row>
@@ -1046,22 +1046,22 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>Motor speed error</t>
+          <t>Land or return to home promptly</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>0-2</t>
+          <t>4-9</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
     </row>
@@ -1076,22 +1076,22 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>If the issue persists, contact DJI Support</t>
+          <t>Motor speed error</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>24-30</t>
+          <t>0-2</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
     </row>
@@ -1106,12 +1106,12 @@
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>After powering off the aircraft, replace the propeller on the beeping ESC</t>
+          <t>If the issue persists, contact DJI Support</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>11-22</t>
+          <t>24-30</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">

--- a/experiments/evaluation/llm-seed/bert-base-cased_15/rem-40_original/ori5/67/correct_predictions_67.xlsx
+++ b/experiments/evaluation/llm-seed/bert-base-cased_15/rem-40_original/ori5/67/correct_predictions_67.xlsx
@@ -926,12 +926,12 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>Aircraft unable to auto hover and takeoff restricted</t>
+          <t>GPS signal low</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>4-11</t>
+          <t>0-2</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
@@ -1007,31 +1007,31 @@
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>GPS signal low . Aircraft unable to auto hover and takeoff restricted . Move to environment with adequate light . Unlocking takeoff restrictions not recommended .</t>
+          <t>Motor speed error . Land or return to home promptly . After powering off the aircraft, replace the propeller on the beeping ESC . If the issue persists, contact DJI Support .</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>GPS signal low</t>
+          <t>Land or return to home promptly</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>0-2</t>
+          <t>4-9</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
     </row>
@@ -1046,22 +1046,22 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>Land or return to home promptly</t>
+          <t>Motor speed error</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>4-9</t>
+          <t>0-2</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
     </row>
@@ -1076,22 +1076,22 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>Motor speed error</t>
+          <t>If the issue persists, contact DJI Support</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>0-2</t>
+          <t>24-30</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
     </row>
@@ -1106,12 +1106,12 @@
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>If the issue persists, contact DJI Support</t>
+          <t>After powering off the aircraft, replace the propeller on the beeping ESC</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>24-30</t>
+          <t>11-22</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
